--- a/stimuli/words_de_3_silben.xlsx
+++ b/stimuli/words_de_3_silben.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>word</t>
   </si>
   <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>category</t>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>freq</t>
   </si>
   <si>
     <t>length</t>
@@ -34,67 +34,244 @@
     <t>speaking_rate</t>
   </si>
   <si>
-    <t>allmählich</t>
-  </si>
-  <si>
-    <t>plötzlich</t>
-  </si>
-  <si>
-    <t>natürlich</t>
-  </si>
-  <si>
-    <t>gemeinsam</t>
-  </si>
-  <si>
-    <t>vergeblich</t>
-  </si>
-  <si>
-    <t>absichtlich</t>
-  </si>
-  <si>
-    <t>allerdings</t>
-  </si>
-  <si>
-    <t>beständig</t>
-  </si>
-  <si>
-    <t>gewöhnlich</t>
-  </si>
-  <si>
-    <t>vorsichtig</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>../sounds/de_allmählich.mp3</t>
-  </si>
-  <si>
-    <t>../sounds/de_plötzlich.mp3</t>
-  </si>
-  <si>
-    <t>../sounds/de_natürlich.mp3</t>
-  </si>
-  <si>
-    <t>../sounds/de_gemeinsam.mp3</t>
-  </si>
-  <si>
-    <t>../sounds/de_vergeblich.mp3</t>
-  </si>
-  <si>
-    <t>../sounds/de_absichtlich.mp3</t>
-  </si>
-  <si>
-    <t>../sounds/de_allerdings.mp3</t>
-  </si>
-  <si>
-    <t>../sounds/de_beständig.mp3</t>
-  </si>
-  <si>
-    <t>../sounds/de_gewöhnlich.mp3</t>
-  </si>
-  <si>
-    <t>../sounds/de_vorsichtig.mp3</t>
+    <t>verstehen</t>
+  </si>
+  <si>
+    <t>passieren</t>
+  </si>
+  <si>
+    <t>bekommen</t>
+  </si>
+  <si>
+    <t>arbeiten</t>
+  </si>
+  <si>
+    <t>verdammen</t>
+  </si>
+  <si>
+    <t>versuchen</t>
+  </si>
+  <si>
+    <t>erzählen</t>
+  </si>
+  <si>
+    <t>verlieren</t>
+  </si>
+  <si>
+    <t>erinnern</t>
+  </si>
+  <si>
+    <t>verschwinden</t>
+  </si>
+  <si>
+    <t>vergessen</t>
+  </si>
+  <si>
+    <t>fertigen</t>
+  </si>
+  <si>
+    <t>verrücken</t>
+  </si>
+  <si>
+    <t>bereiten</t>
+  </si>
+  <si>
+    <t>bedeuten</t>
+  </si>
+  <si>
+    <t>verlassen</t>
+  </si>
+  <si>
+    <t>versprechen</t>
+  </si>
+  <si>
+    <t>anrufen</t>
+  </si>
+  <si>
+    <t>bestimmen</t>
+  </si>
+  <si>
+    <t>umbringen</t>
+  </si>
+  <si>
+    <t>erwarten</t>
+  </si>
+  <si>
+    <t>heiraten</t>
+  </si>
+  <si>
+    <t>gefallen</t>
+  </si>
+  <si>
+    <t>bezahlen</t>
+  </si>
+  <si>
+    <t>gewinnen</t>
+  </si>
+  <si>
+    <t>vertrauen</t>
+  </si>
+  <si>
+    <t>benutzen</t>
+  </si>
+  <si>
+    <t>erklären</t>
+  </si>
+  <si>
+    <t>aufhören</t>
+  </si>
+  <si>
+    <t>anfangen</t>
+  </si>
+  <si>
+    <t>beginnen</t>
+  </si>
+  <si>
+    <t>verdienen</t>
+  </si>
+  <si>
+    <t>geschehen</t>
+  </si>
+  <si>
+    <t>gedenken</t>
+  </si>
+  <si>
+    <t>verkaufen</t>
+  </si>
+  <si>
+    <t>aussehen</t>
+  </si>
+  <si>
+    <t>verletzen</t>
+  </si>
+  <si>
+    <t>verstecken</t>
+  </si>
+  <si>
+    <t>erfahren</t>
+  </si>
+  <si>
+    <t>vorstellen</t>
+  </si>
+  <si>
+    <t>../sounds/de_verstehen.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_passieren.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_bekommen.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_arbeiten.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_verdammen.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_versuchen.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_erzählen.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_verlieren.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_erinnern.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_verschwinden.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_vergessen.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_fertigen.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_verrücken.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_bereiten.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_bedeuten.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_verlassen.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_versprechen.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_anrufen.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_bestimmen.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_umbringen.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_erwarten.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_heiraten.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_gefallen.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_bezahlen.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_gewinnen.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_vertrauen.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_benutzen.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_erklären.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_aufhören.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_anfangen.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_beginnen.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_verdienen.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_geschehen.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_gedenken.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_verkaufen.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_aussehen.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_verletzen.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_verstecken.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_erfahren.mp3</t>
+  </si>
+  <si>
+    <t>../sounds/de_vorstellen.mp3</t>
   </si>
 </sst>
 </file>
@@ -452,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -485,20 +662,20 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
+      <c r="C2">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>100896</v>
       </c>
       <c r="E2">
-        <v>1.08</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="G2">
-        <v>0.813913043478261</v>
+        <v>0.9347368421052632</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -508,20 +685,20 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
+      <c r="C3">
+        <v>38</v>
+      </c>
+      <c r="D3">
+        <v>73100</v>
       </c>
       <c r="E3">
-        <v>1.08</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G3">
-        <v>0.7930434782608696</v>
+        <v>0.985263157894737</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -531,20 +708,20 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
+      <c r="C4">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <v>58826</v>
       </c>
       <c r="E4">
-        <v>1.104</v>
+        <v>0.912</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G4">
-        <v>0.8347826086956522</v>
+        <v>0.8589473684210526</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -554,20 +731,20 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>55922</v>
       </c>
       <c r="E5">
-        <v>1.104</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G5">
-        <v>0.813913043478261</v>
+        <v>0.9600000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -577,20 +754,20 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
+      <c r="C6">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>52188</v>
       </c>
       <c r="E6">
-        <v>1.128</v>
+        <v>0.912</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>0.9182608695652175</v>
+        <v>0.8842105263157894</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -600,20 +777,20 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
+      <c r="C7">
+        <v>47</v>
+      </c>
+      <c r="D7">
+        <v>52157</v>
       </c>
       <c r="E7">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="G7">
-        <v>0.8556521739130435</v>
+        <v>0.985263157894737</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -623,20 +800,20 @@
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
+      <c r="C8">
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>50675</v>
       </c>
       <c r="E8">
-        <v>1.08</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="G8">
-        <v>0.7930434782608696</v>
+        <v>0.9347368421052632</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -646,20 +823,20 @@
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
+      <c r="C9">
+        <v>55</v>
+      </c>
+      <c r="D9">
+        <v>44547</v>
       </c>
       <c r="E9">
-        <v>1.104</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="G9">
-        <v>0.8347826086956522</v>
+        <v>0.9600000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -669,20 +846,20 @@
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
+      <c r="C10">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <v>37295</v>
       </c>
       <c r="E10">
-        <v>1.104</v>
+        <v>0.888</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G10">
-        <v>0.8347826086956522</v>
+        <v>0.8589473684210526</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -692,20 +869,710 @@
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>71</v>
+      </c>
+      <c r="D11">
+        <v>34218</v>
+      </c>
+      <c r="E11">
+        <v>0.96</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11">
+        <v>1.035789473684211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12">
+        <v>72</v>
+      </c>
+      <c r="D12">
+        <v>34160</v>
+      </c>
+      <c r="E12">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12">
+        <v>0.9347368421052632</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>73</v>
+      </c>
+      <c r="D13">
+        <v>33762</v>
+      </c>
+      <c r="E13">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13">
+        <v>0.9347368421052632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>80</v>
+      </c>
+      <c r="D14">
+        <v>30237</v>
+      </c>
+      <c r="E14">
+        <v>0.912</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14">
+        <v>0.8842105263157894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>84</v>
+      </c>
+      <c r="D15">
+        <v>28893</v>
+      </c>
+      <c r="E15">
+        <v>0.912</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15">
+        <v>0.9094736842105263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>86</v>
+      </c>
+      <c r="D16">
+        <v>28308</v>
+      </c>
+      <c r="E16">
+        <v>0.912</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16">
+        <v>0.9094736842105263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>95</v>
+      </c>
+      <c r="D17">
+        <v>26085</v>
+      </c>
+      <c r="E17">
+        <v>0.912</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17">
+        <v>0.9347368421052632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="E11">
-        <v>1.128</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>98</v>
+      </c>
+      <c r="D18">
+        <v>24963</v>
+      </c>
+      <c r="E18">
+        <v>0.96</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18">
+        <v>1.061052631578947</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>24521</v>
+      </c>
+      <c r="E19">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19">
+        <v>0.9347368421052632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>101</v>
+      </c>
+      <c r="D20">
+        <v>24252</v>
+      </c>
+      <c r="E20">
+        <v>0.912</v>
+      </c>
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20">
+        <v>0.9094736842105263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>103</v>
+      </c>
+      <c r="D21">
+        <v>23694</v>
+      </c>
+      <c r="E21">
+        <v>0.912</v>
+      </c>
+      <c r="F21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21">
+        <v>0.9347368421052632</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="G11">
-        <v>0.8973913043478262</v>
+      <c r="C22">
+        <v>109</v>
+      </c>
+      <c r="D22">
+        <v>21815</v>
+      </c>
+      <c r="E22">
+        <v>0.912</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22">
+        <v>0.9094736842105263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>112</v>
+      </c>
+      <c r="D23">
+        <v>21507</v>
+      </c>
+      <c r="E23">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23">
+        <v>0.985263157894737</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>115</v>
+      </c>
+      <c r="D24">
+        <v>21086</v>
+      </c>
+      <c r="E24">
+        <v>0.888</v>
+      </c>
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24">
+        <v>0.8842105263157894</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>116</v>
+      </c>
+      <c r="D25">
+        <v>20824</v>
+      </c>
+      <c r="E25">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="F25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25">
+        <v>0.9600000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>118</v>
+      </c>
+      <c r="D26">
+        <v>20645</v>
+      </c>
+      <c r="E26">
+        <v>0.888</v>
+      </c>
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26">
+        <v>0.8336842105263159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>121</v>
+      </c>
+      <c r="D27">
+        <v>20284</v>
+      </c>
+      <c r="E27">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="F27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27">
+        <v>0.9600000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>123</v>
+      </c>
+      <c r="D28">
+        <v>19475</v>
+      </c>
+      <c r="E28">
+        <v>0.912</v>
+      </c>
+      <c r="F28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28">
+        <v>0.9094736842105263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>125</v>
+      </c>
+      <c r="D29">
+        <v>19077</v>
+      </c>
+      <c r="E29">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="F29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29">
+        <v>0.985263157894737</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>128</v>
+      </c>
+      <c r="D30">
+        <v>18732</v>
+      </c>
+      <c r="E30">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="F30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30">
+        <v>0.9600000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>129</v>
+      </c>
+      <c r="D31">
+        <v>18714</v>
+      </c>
+      <c r="E31">
+        <v>0.912</v>
+      </c>
+      <c r="F31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31">
+        <v>0.9094736842105263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <v>130</v>
+      </c>
+      <c r="D32">
+        <v>18226</v>
+      </c>
+      <c r="E32">
+        <v>0.888</v>
+      </c>
+      <c r="F32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32">
+        <v>0.8336842105263159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33">
+        <v>131</v>
+      </c>
+      <c r="D33">
+        <v>18187</v>
+      </c>
+      <c r="E33">
+        <v>0.912</v>
+      </c>
+      <c r="F33" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33">
+        <v>0.9094736842105263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>135</v>
+      </c>
+      <c r="D34">
+        <v>17565</v>
+      </c>
+      <c r="E34">
+        <v>0.888</v>
+      </c>
+      <c r="F34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34">
+        <v>0.8589473684210526</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35">
+        <v>136</v>
+      </c>
+      <c r="D35">
+        <v>17508</v>
+      </c>
+      <c r="E35">
+        <v>0.912</v>
+      </c>
+      <c r="F35" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35">
+        <v>0.8842105263157894</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>138</v>
+      </c>
+      <c r="D36">
+        <v>17146</v>
+      </c>
+      <c r="E36">
+        <v>0.96</v>
+      </c>
+      <c r="F36" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36">
+        <v>1.010526315789474</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37">
+        <v>144</v>
+      </c>
+      <c r="D37">
+        <v>16022</v>
+      </c>
+      <c r="E37">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="F37" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37">
+        <v>0.9094736842105263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>149</v>
+      </c>
+      <c r="D38">
+        <v>15263</v>
+      </c>
+      <c r="E38">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="F38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G38">
+        <v>0.9347368421052632</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <v>151</v>
+      </c>
+      <c r="D39">
+        <v>15081</v>
+      </c>
+      <c r="E39">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="F39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39">
+        <v>0.985263157894737</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>154</v>
+      </c>
+      <c r="D40">
+        <v>14573</v>
+      </c>
+      <c r="E40">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="F40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40">
+        <v>0.9600000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>155</v>
+      </c>
+      <c r="D41">
+        <v>14572</v>
+      </c>
+      <c r="E41">
+        <v>0.96</v>
+      </c>
+      <c r="F41" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41">
+        <v>1.010526315789474</v>
       </c>
     </row>
   </sheetData>
